--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Matn1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Matn1-Itgb1.xlsx
@@ -537,10 +537,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3987123333333334</v>
+        <v>0.4461060000000001</v>
       </c>
       <c r="H2">
-        <v>1.196137</v>
+        <v>1.338318</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>39.45127920172934</v>
+        <v>74.99480263236401</v>
       </c>
       <c r="R2">
-        <v>355.0615128155641</v>
+        <v>674.9532236912761</v>
       </c>
       <c r="S2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="T2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3987123333333334</v>
+        <v>0.4461060000000001</v>
       </c>
       <c r="H3">
-        <v>1.196137</v>
+        <v>1.338318</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>64.9925965705399</v>
+        <v>72.71805976831401</v>
       </c>
       <c r="R3">
-        <v>584.9333691348592</v>
+        <v>654.462537914826</v>
       </c>
       <c r="S3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="T3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3987123333333334</v>
+        <v>0.4461060000000001</v>
       </c>
       <c r="H4">
-        <v>1.196137</v>
+        <v>1.338318</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>57.52334339549223</v>
+        <v>74.05070969418</v>
       </c>
       <c r="R4">
-        <v>517.7100905594301</v>
+        <v>666.4563872476201</v>
       </c>
       <c r="S4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="T4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3987123333333334</v>
+        <v>0.4461060000000001</v>
       </c>
       <c r="H5">
-        <v>1.196137</v>
+        <v>1.338318</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>26.07423427998223</v>
+        <v>29.54414354650601</v>
       </c>
       <c r="R5">
-        <v>234.6681085198401</v>
+        <v>265.897291918554</v>
       </c>
       <c r="S5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="T5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
     </row>
   </sheetData>
